--- a/JN516X_0V1-module/doc/moudle_pinNumberDiscription.xlsx
+++ b/JN516X_0V1-module/doc/moudle_pinNumberDiscription.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2160" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>模块管脚序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>DIO1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,23 +113,549 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
+    <t>SPISEL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO1, SPI Master Select
+Output 2, ADC input 4 or
+Pulse Counter 0 Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM0CK_GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DIO2, Radio Receive Control
+Output or Timer0 Clock/Gate
+Input </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFTX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM0CAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO3, Radio Transmit
+Control Output or Timer0
+Capture Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM0OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO4, UART 0 Clear To
+Send Input, JTAG CLK Input,
+Timer0 PWM Output, or
+Pulse Counter 0 input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO5, UART 0 Request To
+Send Output, JTAG Mode
+Select Input, PWM1 Output
+or Pulse Counter 1 Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+  </si>
+  <si>
+    <t>PWM3</t>
+  </si>
+  <si>
+    <t>PWM4</t>
+  </si>
+  <si>
+    <t>TIM0CK_GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO6, UART 0 Transmit Data
+Output, JTAG Data Output or
+PWM2 Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO7, UART 0 Receive Data
+Input, JTAG Data Input or
+PWM 3 Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO8, Timer0 Clock/Gate
+Input, Pulse Counter1 Input
+or PWM 4 Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32KXTALIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32KIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO9, Timer0 Capture Input,
+32K External Crystal Input,
+UART 1 Receive Data Input
+or 32K external clock Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32KXTALOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO10, Timer0 PWM Output
+or 32K External Crystal
+Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG_TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO11, PWM1 Output or
+UART 1 Transmit Data
+Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO12, PWM2 Output, UART
+0 Clear To Send Input, JTAG
+CLK Input, Antenna Diversity
+Odd Output or SPI Slave
+Master Out Slave In Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISMOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISMISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO13, PWM3 Output, UART
+0 Request To Send Output,
+JTAG Mode Select Input,
+Antenna Diversity Even
+output or SPI Slave Master In
+Slave Out Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO14, Serial Interface
+Clock, UART 0 Transmit
+Data Output, UART 1
+Transmit Data Output, JTAG
+Data Output, SPI Master
+Select Output 1 or SPI Slave
+Select Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIF_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISEL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISSEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIF_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO16, Comparator Positive
+Input, Serial Interface clock
+or SPI Slave Master Out
+Slave In Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD0 RXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2SEL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD0 TXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO14, Serial Interface
+Clock, UART 0 Transmit
+Data Output, UART 1
+Transmit Data Output, JTAG
+Data Output, SPI Master
+Select Output 1 or SPI Slave
+Select Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO17, Comparator Negative
+Input, Serial Interface Data or
+SPI Slave Master In Slave
+Out Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIMOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISEL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Master Out Slave In
+Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI Master Select Output 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIMISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Master Clock Output or
+PWM2 Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPICLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Master In Slave Out
+Input or PWM3 Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块管脚序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPISEL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO0, SPI Master Select
+Output 1 or ADC input 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analogue peripheral
+reference voltage or ADC
+input 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREF/ADC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟外设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1, DIO0 (ADC3), DIO1 (ADC4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC inputs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO16 (COMP1P), DIO17 (COMP1M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparator inputs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26, 27, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22, 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESETN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIF_CLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +672,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -201,12 +730,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -217,39 +742,69 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,7 +824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,6 +899,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,6 +951,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,280 +1144,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C29"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2">
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2">
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2">
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="6">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D26" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="D27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6">
+      <c r="D28" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
